--- a/results/mp/deberta/corona/confidence/126/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-0.35/avg_0.002_scores.xlsx
@@ -127,12 +127,12 @@
     <t>positive</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
@@ -160,13 +160,13 @@
     <t>safety</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
   </si>
   <si>
     <t>clean</t>
@@ -1565,25 +1565,25 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6753246753246753</v>
+        <v>0.6633663366336634</v>
       </c>
       <c r="L24">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="M24">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="N24">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O24">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1591,25 +1591,25 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6633663366336634</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L25">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="M25">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="N25">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1851,25 +1851,25 @@
         <v>48</v>
       </c>
       <c r="K35">
-        <v>0.5258358662613982</v>
+        <v>0.52</v>
       </c>
       <c r="L35">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>156</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1877,25 +1877,25 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>0.52</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1903,25 +1903,25 @@
         <v>50</v>
       </c>
       <c r="K37">
-        <v>0.5121951219512195</v>
+        <v>0.5088235294117647</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="M37">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="N37">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>20</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="10:17">
